--- a/CashFlow/J_cashflow.xlsx
+++ b/CashFlow/J_cashflow.xlsx
@@ -75,7 +75,7 @@
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-121443000.0</v>
+        <v>4140000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-92838000.0</v>
+        <v>4174000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>-259617000.0</v>
+        <v>2967463000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>-400618000.0</v>
+        <v>1815047000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>-171148000.0</v>
+        <v>897232000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-305716000.0</v>
